--- a/app/download_dir/system_files/шали_по каждому размеру.xlsx
+++ b/app/download_dir/system_files/шали_по каждому размеру.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="661">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -1043,6 +1043,9 @@
   </si>
   <si>
     <t xml:space="preserve">ЛЮКСЕМБУРГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАМУФЛЯЖНЫЙ</t>
   </si>
   <si>
     <t xml:space="preserve">МАВРИКИЙ</t>
@@ -2502,7 +2505,7 @@
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="72.34"/>
@@ -15390,10 +15393,10 @@
   <dimension ref="A1:I246"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E111" activeCellId="0" sqref="E111"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.34"/>
@@ -16484,278 +16487,281 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E113" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="H113" s="28" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H114" s="28" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H115" s="28" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H116" s="28" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H117" s="28" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H118" s="28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H119" s="28" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H120" s="28" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H121" s="28" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H122" s="28" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H123" s="28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H124" s="28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H125" s="28" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H126" s="28" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H127" s="28" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H128" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H129" s="28" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H130" s="28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H131" s="28" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H132" s="28" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H133" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H134" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H135" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H136" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H137" s="28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H138" s="28" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H139" s="28" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H140" s="28" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H141" s="28" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H142" s="28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H143" s="28" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H144" s="28" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H145" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H146" s="28" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H147" s="28" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H148" s="28" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H149" s="28" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H150" s="28" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H151" s="28" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H152" s="28" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H153" s="28" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H154" s="28" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H155" s="28" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H156" s="28" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H157" s="28" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H158" s="28" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H159" s="28" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H160" s="28" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H161" s="28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H162" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H163" s="28" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H164" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H165" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H166" s="28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H167" s="28" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16765,372 +16771,372 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H169" s="28" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H170" s="28" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H171" s="28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H172" s="28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H173" s="28" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H174" s="28" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H175" s="28" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H176" s="28" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H177" s="28" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H178" s="28" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H179" s="28" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H180" s="28" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H181" s="28" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H182" s="28" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H183" s="28" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H184" s="28" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H185" s="28" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H186" s="28" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H187" s="28" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H188" s="28" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H189" s="28" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H190" s="28" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H191" s="28" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H192" s="28" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H193" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H194" s="28" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H195" s="28" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H196" s="28" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H197" s="28" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H198" s="28" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H199" s="28" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H200" s="28" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H201" s="28" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H202" s="28" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H203" s="28" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H204" s="28" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H205" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H206" s="28" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H207" s="28" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H208" s="28" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H209" s="28" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H210" s="28" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H211" s="28" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H212" s="28" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H213" s="28" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H214" s="28" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H215" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H216" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H217" s="28" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H218" s="28" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H219" s="28" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H220" s="28" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H221" s="28" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H222" s="28" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H223" s="28" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H224" s="28" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H225" s="28" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H226" s="28" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H227" s="28" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H228" s="28" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H229" s="28" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H230" s="28" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H231" s="28" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H232" s="28" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H233" s="28" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H234" s="28" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H235" s="28" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H236" s="28" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H237" s="28" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H238" s="28" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H239" s="28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H240" s="28" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H241" s="28" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H242" s="28" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17149,7 +17155,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E112">
+  <conditionalFormatting sqref="E2:E113">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17173,7 +17179,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.78"/>
@@ -17186,13 +17192,13 @@
         <v>65</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17200,13 +17206,13 @@
         <v>52</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17214,13 +17220,13 @@
         <v>75</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17228,79 +17234,79 @@
         <v>79</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="32" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="32" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="32" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="32" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="32" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="32" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17308,170 +17314,170 @@
         <v>19</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="32" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="32" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="32" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="32" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="32" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="32" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="32" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="32" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="32" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="32" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="32" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="32" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="32" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="32" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="32" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="32" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="32" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17481,177 +17487,177 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="32" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="32" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="32" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="32" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="32" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="32" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="32" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="32" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="32" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="32" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="32" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="32" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="32" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="32" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="32" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="32" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="32" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="32" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="32" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="32" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="32" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="32" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="32" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="32" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="32" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="32" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="32" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="32" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="32" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="32" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="32" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="32" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="32" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="32" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17661,57 +17667,57 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="32" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="32" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="32" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="32" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="32" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="32" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="32" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="32" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="32" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="32" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="32" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17835,7 +17841,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="54.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="215.56"/>
@@ -17843,380 +17849,380 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="33" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="35" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="35" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="35" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="38" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="35" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="35" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="35" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="35" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="35" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="38" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B16" s="39"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="35" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B17" s="39"/>
     </row>
     <row r="18" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="35" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B18" s="39"/>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="35" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B19" s="39"/>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="35" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B20" s="39"/>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="35" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B21" s="39"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="35" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B22" s="39"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="35" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B23" s="39"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="38" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B24" s="39"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="35" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B25" s="39"/>
     </row>
     <row r="26" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="35" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B26" s="39"/>
     </row>
     <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="35" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B27" s="39"/>
     </row>
     <row r="28" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="35" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B28" s="39"/>
     </row>
     <row r="29" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="35" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B29" s="39"/>
     </row>
     <row r="30" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="38" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B30" s="39"/>
     </row>
     <row r="31" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="35" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B31" s="39"/>
     </row>
     <row r="32" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="35" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B32" s="39"/>
     </row>
     <row r="33" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="38" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B33" s="39"/>
     </row>
     <row r="34" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="35" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B34" s="39"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="35" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B35" s="39"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="35" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B36" s="39"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="35" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B37" s="39"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="35" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B38" s="39"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="35" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B39" s="39"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="35" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B40" s="39"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B41" s="39"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="35" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B42" s="39"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="35" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B43" s="39"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="35" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B44" s="39"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="35" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B45" s="39"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="35" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B46" s="39"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="35" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B47" s="39"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="35" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B48" s="39"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="35" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B49" s="39"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="35" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B50" s="39"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="35" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B51" s="39"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="35" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B52" s="39"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="35" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B53" s="39"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="35" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="35" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="35" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="35" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="35" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="35" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/app/download_dir/system_files/шали_по каждому размеру.xlsx
+++ b/app/download_dir/system_files/шали_по каждому размеру.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="660">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -208,7 +208,7 @@
     <t xml:space="preserve">КИТАЙ</t>
   </si>
   <si>
-    <t xml:space="preserve">Отказное письмо</t>
+    <t xml:space="preserve">Декларация соответствия</t>
   </si>
   <si>
     <t xml:space="preserve">test</t>
@@ -244,9 +244,6 @@
     <t xml:space="preserve">АБХАЗИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">Декларация соответствия</t>
-  </si>
-  <si>
     <t xml:space="preserve">Наименование атрибута</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
     <t xml:space="preserve">АВСТРАЛИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">Сертификат</t>
+  </si>
+  <si>
     <t xml:space="preserve">БАНТ</t>
   </si>
   <si>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t xml:space="preserve">АВСТРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сертификат</t>
   </si>
   <si>
     <t xml:space="preserve">БАСКА</t>
@@ -2502,10 +2499,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="72.34"/>
@@ -15343,7 +15340,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O7:O1045" type="list">
-      <formula1>Справочники!$I$2:$I$4</formula1>
+      <formula1>Справочники!$I$2:$I$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H7:H400" type="list">
@@ -15392,11 +15389,11 @@
   </sheetPr>
   <dimension ref="A1:I246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.34"/>
@@ -15450,33 +15447,33 @@
         <v>69</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>71</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="I3" s="29" t="s">
         <v>76</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15495,507 +15492,504 @@
       <c r="H4" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="29" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="28" t="s">
         <v>84</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="28" t="s">
         <v>87</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="H7" s="28" t="s">
         <v>90</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" s="28" t="s">
         <v>93</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="H9" s="28" t="s">
         <v>96</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="H10" s="28" t="s">
         <v>99</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="H11" s="28" t="s">
         <v>102</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="H12" s="28" t="s">
         <v>105</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="H13" s="28" t="s">
         <v>108</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="H14" s="28" t="s">
         <v>111</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="H15" s="28" t="s">
         <v>114</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="H16" s="28" t="s">
         <v>117</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="H17" s="28" t="s">
         <v>120</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="H18" s="28" t="s">
         <v>123</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="H19" s="28" t="s">
         <v>126</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="H20" s="28" t="s">
         <v>129</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="H21" s="28" t="s">
         <v>132</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="H22" s="28" t="s">
         <v>135</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="H23" s="28" t="s">
         <v>138</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="H24" s="28" t="s">
         <v>141</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="H25" s="28" t="s">
         <v>144</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="H26" s="28" t="s">
         <v>147</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="H27" s="28" t="s">
         <v>150</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="H28" s="28" t="s">
         <v>153</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="H29" s="28" t="s">
         <v>156</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="H30" s="28" t="s">
         <v>159</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="H31" s="28" t="s">
         <v>162</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="H32" s="28" t="s">
         <v>165</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="H33" s="28" t="s">
         <v>168</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="H34" s="28" t="s">
         <v>171</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="H35" s="28" t="s">
         <v>174</v>
-      </c>
-      <c r="H35" s="28" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="H36" s="28" t="s">
         <v>177</v>
-      </c>
-      <c r="H36" s="28" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="H37" s="28" t="s">
         <v>180</v>
-      </c>
-      <c r="H37" s="28" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="H38" s="28" t="s">
         <v>183</v>
-      </c>
-      <c r="H38" s="28" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="H39" s="28" t="s">
         <v>186</v>
-      </c>
-      <c r="H39" s="28" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="H40" s="28" t="s">
         <v>189</v>
-      </c>
-      <c r="H40" s="28" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="H41" s="28" t="s">
         <v>192</v>
-      </c>
-      <c r="H41" s="28" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="H42" s="28" t="s">
         <v>195</v>
-      </c>
-      <c r="H42" s="28" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="H43" s="28" t="s">
         <v>198</v>
-      </c>
-      <c r="H43" s="28" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="H44" s="28" t="s">
         <v>201</v>
-      </c>
-      <c r="H44" s="28" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H45" s="28" t="s">
         <v>203</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H46" s="28" t="s">
         <v>205</v>
-      </c>
-      <c r="H46" s="28" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H47" s="28" t="s">
         <v>207</v>
-      </c>
-      <c r="H47" s="28" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H48" s="28" t="s">
         <v>209</v>
-      </c>
-      <c r="H48" s="28" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H49" s="28" t="s">
         <v>211</v>
-      </c>
-      <c r="H49" s="28" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H50" s="28" t="s">
         <v>213</v>
-      </c>
-      <c r="H50" s="28" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H51" s="28" t="s">
         <v>215</v>
-      </c>
-      <c r="H51" s="28" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16003,356 +15997,356 @@
         <v>50</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H53" s="28" t="s">
         <v>218</v>
-      </c>
-      <c r="H53" s="28" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H54" s="28" t="s">
         <v>220</v>
-      </c>
-      <c r="H54" s="28" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H55" s="28" t="s">
         <v>222</v>
-      </c>
-      <c r="H55" s="28" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E56" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H56" s="28" t="s">
         <v>224</v>
-      </c>
-      <c r="H56" s="28" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H57" s="28" t="s">
         <v>226</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H58" s="28" t="s">
         <v>228</v>
-      </c>
-      <c r="H58" s="28" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H59" s="28" t="s">
         <v>230</v>
-      </c>
-      <c r="H59" s="28" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H60" s="28" t="s">
         <v>232</v>
-      </c>
-      <c r="H60" s="28" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E61" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H61" s="28" t="s">
         <v>234</v>
-      </c>
-      <c r="H61" s="28" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E62" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H62" s="28" t="s">
         <v>236</v>
-      </c>
-      <c r="H62" s="28" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H63" s="28" t="s">
         <v>238</v>
-      </c>
-      <c r="H63" s="28" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H64" s="28" t="s">
         <v>240</v>
-      </c>
-      <c r="H64" s="28" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E65" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H65" s="28" t="s">
         <v>242</v>
-      </c>
-      <c r="H65" s="28" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E66" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H66" s="28" t="s">
         <v>244</v>
-      </c>
-      <c r="H66" s="28" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H67" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="H67" s="28" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H68" s="28" t="s">
         <v>248</v>
-      </c>
-      <c r="H68" s="28" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H69" s="28" t="s">
         <v>250</v>
-      </c>
-      <c r="H69" s="28" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H70" s="28" t="s">
         <v>252</v>
-      </c>
-      <c r="H70" s="28" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H71" s="28" t="s">
         <v>254</v>
-      </c>
-      <c r="H71" s="28" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H72" s="28" t="s">
         <v>256</v>
-      </c>
-      <c r="H72" s="28" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H73" s="28" t="s">
         <v>258</v>
-      </c>
-      <c r="H73" s="28" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H74" s="28" t="s">
         <v>260</v>
-      </c>
-      <c r="H74" s="28" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H75" s="28" t="s">
         <v>262</v>
-      </c>
-      <c r="H75" s="28" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H76" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="H76" s="28" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H77" s="28" t="s">
         <v>266</v>
-      </c>
-      <c r="H77" s="28" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H78" s="28" t="s">
         <v>268</v>
-      </c>
-      <c r="H78" s="28" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H79" s="28" t="s">
         <v>270</v>
-      </c>
-      <c r="H79" s="28" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H80" s="28" t="s">
         <v>272</v>
-      </c>
-      <c r="H80" s="28" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H81" s="28" t="s">
         <v>274</v>
-      </c>
-      <c r="H81" s="28" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H82" s="28" t="s">
         <v>276</v>
-      </c>
-      <c r="H82" s="28" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H83" s="28" t="s">
         <v>278</v>
-      </c>
-      <c r="H83" s="28" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H84" s="28" t="s">
         <v>280</v>
-      </c>
-      <c r="H84" s="28" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H85" s="28" t="s">
         <v>282</v>
-      </c>
-      <c r="H85" s="28" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H86" s="28" t="s">
         <v>284</v>
-      </c>
-      <c r="H86" s="28" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H87" s="28" t="s">
         <v>286</v>
-      </c>
-      <c r="H87" s="28" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H88" s="28" t="s">
         <v>288</v>
-      </c>
-      <c r="H88" s="28" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H89" s="28" t="s">
         <v>290</v>
-      </c>
-      <c r="H89" s="28" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H90" s="28" t="s">
         <v>292</v>
-      </c>
-      <c r="H90" s="28" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H91" s="28" t="s">
         <v>294</v>
-      </c>
-      <c r="H91" s="28" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H92" s="28" t="s">
         <v>296</v>
-      </c>
-      <c r="H92" s="28" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H93" s="28" t="s">
         <v>298</v>
-      </c>
-      <c r="H93" s="28" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H94" s="28" t="s">
         <v>300</v>
-      </c>
-      <c r="H94" s="28" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H95" s="28" t="s">
         <v>302</v>
-      </c>
-      <c r="H95" s="28" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H96" s="28" t="s">
         <v>57</v>
@@ -16360,408 +16354,408 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H97" s="28" t="s">
         <v>305</v>
-      </c>
-      <c r="H97" s="28" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H98" s="28" t="s">
         <v>307</v>
-      </c>
-      <c r="H98" s="28" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H99" s="28" t="s">
         <v>309</v>
-      </c>
-      <c r="H99" s="28" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H100" s="28" t="s">
         <v>311</v>
-      </c>
-      <c r="H100" s="28" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H101" s="28" t="s">
         <v>313</v>
-      </c>
-      <c r="H101" s="28" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H102" s="28" t="s">
         <v>315</v>
-      </c>
-      <c r="H102" s="28" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H103" s="28" t="s">
         <v>317</v>
-      </c>
-      <c r="H103" s="28" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H104" s="28" t="s">
         <v>319</v>
-      </c>
-      <c r="H104" s="28" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H105" s="28" t="s">
         <v>321</v>
-      </c>
-      <c r="H105" s="28" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E106" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H106" s="28" t="s">
         <v>323</v>
-      </c>
-      <c r="H106" s="28" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H107" s="28" t="s">
         <v>325</v>
-      </c>
-      <c r="H107" s="28" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H108" s="28" t="s">
         <v>327</v>
-      </c>
-      <c r="H108" s="28" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H109" s="28" t="s">
         <v>329</v>
-      </c>
-      <c r="H109" s="28" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H110" s="28" t="s">
         <v>331</v>
-      </c>
-      <c r="H110" s="28" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E111" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H111" s="28" t="s">
         <v>333</v>
-      </c>
-      <c r="H111" s="28" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H112" s="28" t="s">
         <v>335</v>
-      </c>
-      <c r="H112" s="28" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E113" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H113" s="28" t="s">
         <v>337</v>
-      </c>
-      <c r="H113" s="28" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H114" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H115" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H116" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H117" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H118" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H119" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H120" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H121" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H122" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H123" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H124" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H125" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H126" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H127" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H128" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H129" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H130" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H131" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H132" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H133" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H134" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H135" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H136" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H137" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H138" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H139" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H140" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H141" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H142" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H143" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H144" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H145" s="28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H146" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H147" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H148" s="28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H149" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H150" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H151" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H152" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H153" s="28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H154" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H155" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H156" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H157" s="28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H158" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H159" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H160" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H161" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H162" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H163" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H164" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H165" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H166" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H167" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16771,372 +16765,372 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H169" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H170" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H171" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H172" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H173" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H174" s="28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H175" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H176" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H177" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H178" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H179" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H180" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H181" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H182" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H183" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H184" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H185" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H186" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H187" s="28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H188" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H189" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H190" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H191" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H192" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H193" s="28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H194" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H195" s="28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H196" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H197" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H198" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H199" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H200" s="28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H201" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H202" s="28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H203" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H204" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H205" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H206" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H207" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H208" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H209" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H210" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H211" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H212" s="28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H213" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H214" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H215" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H216" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H217" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H218" s="28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H219" s="28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H220" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H221" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H222" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H223" s="28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H224" s="28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H225" s="28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H226" s="28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H227" s="28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H228" s="28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H229" s="28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H230" s="28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H231" s="28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H232" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H233" s="28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H234" s="28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H235" s="28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H236" s="28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H237" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H238" s="28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H239" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H240" s="28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H241" s="28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H242" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17179,7 +17173,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.78"/>
@@ -17192,13 +17186,13 @@
         <v>65</v>
       </c>
       <c r="C2" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>467</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="31" t="s">
         <v>468</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17206,27 +17200,27 @@
         <v>52</v>
       </c>
       <c r="C3" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="32" t="s">
         <v>474</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17234,79 +17228,79 @@
         <v>79</v>
       </c>
       <c r="C5" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>476</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="E5" s="32" t="s">
         <v>477</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>479</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="E6" s="32" t="s">
         <v>480</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="E7" s="32" t="s">
         <v>483</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>485</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="E8" s="32" t="s">
         <v>486</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="32" t="s">
         <v>489</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="E10" s="32" t="s">
         <v>492</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>494</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="E11" s="32" t="s">
         <v>495</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17314,170 +17308,170 @@
         <v>19</v>
       </c>
       <c r="D12" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>497</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="E13" s="32" t="s">
         <v>500</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>502</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="E14" s="32" t="s">
         <v>503</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>505</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="E15" s="32" t="s">
         <v>506</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>508</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="E16" s="32" t="s">
         <v>509</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>511</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="E17" s="32" t="s">
         <v>512</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="32" t="s">
+        <v>513</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>514</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="E18" s="32" t="s">
         <v>515</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="32" t="s">
+        <v>516</v>
+      </c>
+      <c r="D19" s="32" t="s">
         <v>517</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="E19" s="32" t="s">
         <v>518</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="D20" s="32" t="s">
         <v>520</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="E20" s="32" t="s">
         <v>521</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>523</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="E21" s="32" t="s">
         <v>524</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="32" t="s">
+        <v>525</v>
+      </c>
+      <c r="E22" s="32" t="s">
         <v>526</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="32" t="s">
+        <v>527</v>
+      </c>
+      <c r="E23" s="32" t="s">
         <v>528</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="32" t="s">
+        <v>529</v>
+      </c>
+      <c r="E24" s="32" t="s">
         <v>530</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="32" t="s">
+        <v>531</v>
+      </c>
+      <c r="E25" s="32" t="s">
         <v>532</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="32" t="s">
+        <v>533</v>
+      </c>
+      <c r="E26" s="32" t="s">
         <v>534</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="E27" s="32" t="s">
         <v>536</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="E28" s="32" t="s">
         <v>538</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17487,177 +17481,177 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="32" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="32" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="32" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="32" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="32" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="32" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="32" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="32" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="32" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="32" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="32" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="32" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="32" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="32" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="32" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="32" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="32" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17667,57 +17661,57 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="32" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="32" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="32" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="32" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="32" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="32" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17841,7 +17835,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="54.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="215.56"/>
@@ -17849,380 +17843,380 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>587</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
+        <v>588</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>589</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="35" t="s">
+        <v>590</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>591</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>593</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="35" t="s">
+        <v>594</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>595</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
+        <v>596</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>597</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="35" t="s">
+        <v>598</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>599</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
+        <v>600</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>601</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
+        <v>602</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>603</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>605</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="35" t="s">
+        <v>606</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>607</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="35" t="s">
+        <v>608</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>609</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="35" t="s">
+        <v>610</v>
+      </c>
+      <c r="B13" s="37" t="s">
         <v>611</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="35" t="s">
+        <v>612</v>
+      </c>
+      <c r="B14" s="37" t="s">
         <v>613</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="35" t="s">
+        <v>614</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>615</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B16" s="39"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="35" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B17" s="39"/>
     </row>
     <row r="18" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="35" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B18" s="39"/>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="35" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B19" s="39"/>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="35" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B20" s="39"/>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="35" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B21" s="39"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="35" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B22" s="39"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="35" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B23" s="39"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B24" s="39"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B25" s="39"/>
     </row>
     <row r="26" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="35" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B26" s="39"/>
     </row>
     <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="35" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B27" s="39"/>
     </row>
     <row r="28" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B28" s="39"/>
     </row>
     <row r="29" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="35" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B29" s="39"/>
     </row>
     <row r="30" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B30" s="39"/>
     </row>
     <row r="31" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B31" s="39"/>
     </row>
     <row r="32" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B32" s="39"/>
     </row>
     <row r="33" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B33" s="39"/>
     </row>
     <row r="34" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="35" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B34" s="39"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="35" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B35" s="39"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="35" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B36" s="39"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="35" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B37" s="39"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="35" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B38" s="39"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="35" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B39" s="39"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="35" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B40" s="39"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B41" s="39"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="35" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B42" s="39"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="35" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B43" s="39"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="35" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B44" s="39"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="35" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B45" s="39"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="35" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B46" s="39"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="35" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B47" s="39"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="35" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B48" s="39"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="35" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B49" s="39"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="35" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B50" s="39"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="35" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B51" s="39"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="35" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B52" s="39"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="35" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B53" s="39"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="35" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="35" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="35" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="35" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="35" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="35" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
